--- a/project-plan-v003.xlsx
+++ b/project-plan-v003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpdoy\Desktop\Spring 2024 - NU\MSDS 460\Module 4\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0466614-1112-444D-B03B-53A2857CADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856C955B-D760-438E-9AFF-EAE5578175D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-45" windowWidth="22695" windowHeight="14475" xr2:uid="{1B5D745C-8884-4D33-A526-84118B2469EE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>task</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Total bestCase ManHours</t>
+  </si>
+  <si>
+    <t>Updated Expected Hours</t>
+  </si>
+  <si>
+    <t>Updated Expected ManHours</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,12 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -592,32 +593,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1607D3ED-53EC-405A-8A08-88B30F9AD2ED}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" customWidth="1"/>
-    <col min="6" max="6" width="14.265625" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" style="9"/>
-    <col min="8" max="8" width="14.19921875" customWidth="1"/>
-    <col min="9" max="9" width="17.46484375" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" customWidth="1"/>
-    <col min="11" max="11" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.265625" customWidth="1"/>
-    <col min="15" max="15" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.46484375" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -666,9 +666,17 @@
       <c r="P1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -676,51 +684,60 @@
         <v>37</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="8">
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2">
         <v>12</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2">
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0</v>
-      </c>
-      <c r="K2" s="10">
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
         <v>1</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="8">
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2">
         <f>D2*$H2+D2*$I2+D2*$J2+D2*$K2+D2*$L2</f>
         <v>24</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2">
         <f t="shared" ref="O2:P2" si="0">E2*$H2+E2*$I2+E2*$J2+E2*$K2+E2*$L2</f>
         <v>36</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>12</v>
+      </c>
+      <c r="S2">
+        <f>H2*R2+I2*R2+J2*R2+K2*R2+L2*R2</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -728,51 +745,60 @@
         <v>22</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="8">
+      <c r="D3">
         <v>24</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>40</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3">
         <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3">
         <f t="shared" ref="N3:N17" si="1">D3*$H3+D3*$I3+D3*$J3+D3*$K3+D3*$L3</f>
         <v>48</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3">
         <f t="shared" ref="O3:O17" si="2">E3*$H3+E3*$I3+E3*$J3+E3*$K3+E3*$L3</f>
         <v>80</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3">
         <f t="shared" ref="P3:P17" si="3">F3*$H3+F3*$I3+F3*$J3+F3*$K3+F3*$L3</f>
         <v>120</v>
       </c>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>40</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S17" si="4">H3*R3+I3*R3+J3*R3+K3*R3+L3*R3</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -782,51 +808,60 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
         <v>16</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>24</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4">
         <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>24</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -840,20 +875,24 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -863,51 +902,60 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>40</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6">
         <v>60</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <v>50</v>
+      </c>
+      <c r="S6">
+        <f>H6*R6+I6*(R6)+(J6+1)*R6+K6*R6+L6*R6</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -917,51 +965,60 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>60</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>90</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <v>120</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7">
         <f t="shared" si="3"/>
         <v>720</v>
       </c>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7">
+        <v>80</v>
+      </c>
+      <c r="S7">
+        <f>H7*R7+(1+I7)*(R7)+(J7+1)*R7+K7*R7+L7*R7</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -971,51 +1028,60 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>60</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>90</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <v>120</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8">
+        <v>80</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S7:S13" si="5">H8*R8+I8*(R8)+(J8+1)*R8+K8*R8+L8*R8</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1025,51 +1091,60 @@
       <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>120</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9">
         <v>280</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9">
         <v>3</v>
       </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9">
         <f t="shared" si="3"/>
         <v>1680</v>
       </c>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9">
+        <v>190</v>
+      </c>
+      <c r="S9">
+        <f>H9*R9+(1+I9)*(R9)+(J9+1)*R9+K9*R9+L9*R9</f>
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1079,51 +1154,60 @@
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>40</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
         <v>60</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10">
         <v>80</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ref="S10:S11" si="6">H10*R10+(1+I10)*(R10)+(J10+1)*R10+K10*R10+L10*R10</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1133,51 +1217,60 @@
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>40</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11">
         <v>80</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11">
         <v>120</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11">
         <v>3</v>
       </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11">
         <f t="shared" si="3"/>
         <v>720</v>
       </c>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11">
+        <v>70</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1187,51 +1280,60 @@
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>40</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12">
         <v>80</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12">
         <v>120</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>3</v>
       </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12">
+        <v>70</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1241,51 +1343,60 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>24</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13">
         <v>40</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13">
         <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>3</v>
       </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>30</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1295,51 +1406,60 @@
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>40</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14">
         <v>60</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14">
         <v>80</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>60</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1349,51 +1469,60 @@
       <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>16</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15">
         <v>24</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15">
         <v>32</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15">
+        <v>24</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1403,51 +1532,60 @@
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16">
         <v>20</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16">
         <v>30</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16">
         <v>40</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16">
+        <v>30</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1457,51 +1595,60 @@
       <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17">
         <v>8</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17">
         <v>12</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
-        <v>0</v>
-      </c>
-      <c r="L17" s="13">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17">
+        <v>12</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q18" s="2"/>
     </row>
   </sheetData>
